--- a/Excel/镇魂街/新配置表/drop.掉落表.xlsx
+++ b/Excel/镇魂街/新配置表/drop.掉落表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -9386,11 +9386,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>groupType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>groupId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>groupType</t>
+    <t>item.id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.numMin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.numMax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -9398,26 +9414,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>groupId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.numMin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.numMax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -9427,6 +9423,10 @@
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9954,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10067,7 +10067,7 @@
   <dimension ref="A1:D691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10079,21 +10079,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3097</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3098</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -19763,8 +19763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19779,7 +19779,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>706</v>
@@ -19791,21 +19791,21 @@
         <v>709</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3101</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3102</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3103</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B2" t="s">
         <v>707</v>
@@ -19817,7 +19817,7 @@
         <v>705</v>
       </c>
       <c r="E2" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="F2" t="s">
         <v>705</v>
